--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>UserName</t>
   </si>
@@ -377,9 +377,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>UserName</t>
   </si>
@@ -27,16 +27,16 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>testmailone@test.com</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>testmailtwo@test.com</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Title</t>
   </si>
   <si>
     <t>Log in to Facebook</t>
@@ -47,18 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,16 +73,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,14 +361,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -390,12 +377,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -405,8 +392,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -416,10 +403,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:testmailone@test.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:testmailtwo@test.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>